--- a/Rendu_3/MemoryMap.xlsx
+++ b/Rendu_3/MemoryMap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/Rendu_1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hearc365-my.sharepoint.com/personal/gabriel_dostuni_he-arc_ch/Documents/Documents/HeArc/ISC1b/systemes_numériques/LaboSystemNumeric/Rendu_3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="11_AD4DB114E441178AC67DF403BE13D00A693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF186529-176A-493C-A243-8E21D0F8CDE0}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="11_AD4DB114E441178AC67DF403BE13D00A693EDF26" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D83BF79C-2978-4EB7-82E3-64F7A3EAF080}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>RAM</t>
   </si>
@@ -60,7 +60,13 @@
     <t>$E0</t>
   </si>
   <si>
-    <t>$12 - $DF</t>
+    <t>$12</t>
+  </si>
+  <si>
+    <t>$13 - $DF</t>
+  </si>
+  <si>
+    <t>CS_PORT_C</t>
   </si>
 </sst>
 </file>
@@ -98,7 +104,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,6 +129,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -178,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -200,6 +212,9 @@
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -482,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,7 +514,7 @@
       </c>
       <c r="C2" s="7"/>
     </row>
-    <row r="3" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -507,13 +522,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -521,7 +536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -529,30 +544,38 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C10" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rendu_3/MemoryMap.xlsx
+++ b/Rendu_3/MemoryMap.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -204,16 +204,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -232,6 +232,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -500,7 +504,7 @@
   <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,10 +513,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="30" x14ac:dyDescent="0.5">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
@@ -548,7 +552,7 @@
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -562,7 +566,7 @@
       <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>0</v>
       </c>
     </row>
@@ -570,7 +574,7 @@
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
